--- a/rem-web/src/main/webapp/plantillas/plugin/AdvisoryNoteApple/AdvisoryNoteReport.xlsx
+++ b/rem-web/src/main/webapp/plantillas/plugin/AdvisoryNoteApple/AdvisoryNoteReport.xlsx
@@ -15,16 +15,17 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
-    <definedName function="false" hidden="false" name="DRCCIAL" vbProcedure="false">[1]'Desplegables-AUX'!$B$3:$B$12</definedName>
-    <definedName function="false" hidden="false" name="PAGO" vbProcedure="false">[1]'Desplegables-AUX'!$B$56:$B$57</definedName>
-    <definedName function="false" hidden="false" name="sn" vbProcedure="false">[1]'Desplegables-AUX'!$B$61:$B$62</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" name="DRCCIAL" vbProcedure="false">[2]'Desplegables-AUX'!$B$3:$B$12</definedName>
+    <definedName function="false" hidden="false" name="PAGO" vbProcedure="false">[2]'Desplegables-AUX'!$B$56:$B$57</definedName>
+    <definedName function="false" hidden="false" name="sn" vbProcedure="false">[2]'Desplegables-AUX'!$B$61:$B$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">'AN S0532-2019'!$A$1:$K$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Project APPLE - AN NR</t>
   </si>
@@ -167,9 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">Property Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROMONTORIA MANZANA</t>
   </si>
   <si>
     <t xml:space="preserve">Options on Type of Asset </t>
@@ -217,7 +215,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -270,14 +268,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -315,13 +305,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -348,7 +331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,14 +377,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,7 +452,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -488,20 +463,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:T7"/>
+  <dimension ref="B1:T6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.4615384615385"/>
   </cols>
@@ -596,35 +571,13 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M2:R7"/>
+  <mergeCells count="5">
+    <mergeCell ref="M2:R6"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.0395833333333333" right="0.0395833333333333" top="0.354166666666667" bottom="0.354166666666667" header="0.511805555555555" footer="0.511805555555555"/>
@@ -650,7 +603,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="11.4615384615385"/>
   </cols>
   <sheetData>
@@ -665,32 +618,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,17 +654,17 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,17 +675,17 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
